--- a/MediaPlayerPro/操作及配置说明.xlsx
+++ b/MediaPlayerPro/操作及配置说明.xlsx
@@ -3,23 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="DP2fyzLw8nagSQZrhMGg679i2f35Pb5FUs7d1Ywhx/GLAtRjII31CjjHosy8aJ3kbyEZYNYIhZw3Bt3999r4Xw==" workbookSaltValue="zXrFqbE/3d8W7TsuUODftg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="操作及配置说明" sheetId="5" r:id="rId1"/>
     <sheet name="快捷键操作列表" sheetId="1" r:id="rId2"/>
-    <sheet name="Event说明" sheetId="4" r:id="rId3"/>
-    <sheet name="常用访问属性列表" sheetId="2" r:id="rId4"/>
-    <sheet name="常用访问方法列表" sheetId="3" r:id="rId5"/>
+    <sheet name="XML配置说明" sheetId="6" r:id="rId3"/>
+    <sheet name="XML-Event说明" sheetId="4" r:id="rId4"/>
+    <sheet name="常用访问属性列表" sheetId="2" r:id="rId5"/>
+    <sheet name="常用访问方法列表" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="203">
   <si>
     <t>快捷键</t>
   </si>
@@ -666,10 +666,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TCP/UDP/SerialPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,18 +706,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InputChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutputChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Element: 元素名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -794,39 +778,227 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在播放/暂停之间切换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Receive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Connection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Message/Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeviceAddress, {RType}RegisterAddress, Value/MinValue/MaxValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeviceAddress, {RType}RegisterAddress, Value/MinValue/MaxValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Initlized</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Disposed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputChanged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutputChanged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceAddress, {RegisterType}RegisterAddress, Value/MinValue/MaxValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{TargetName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Property}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Value}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法参数，没参数可为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象的属性的新值，为空时表示返回属性值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素值说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件类型(Event.@Type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件参数属性及值说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message:文本类型 或 Bytes: 字节类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置对象属性 @Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置对象属性 @Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurnSingleCoil(byte slaveAddress, ushort coilAddress);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurnMultipleCoils(byte slaveAddress, ushort[] coilsAddresses);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteSingleCoil(byte slaveAddress, ushort coilAddress, bool value);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurnMultipleCoils(byte slaveAddress, ushort startAddress, byte count);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteMultipleCoils(byte slaveAddress, ushort[] addresses, bool[] data);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteMultipleCoils(byte slaveAddress, ushort startAddress, bool[] data);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteSingleRegister(byte slaveAddress, ushort registerAddress, ushort value);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteMultipleRegisters(byte slaveAddress, ushort startAddress, ushort[] data);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartTransport();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StopTransport();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleep(int millisecondsTimeout);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总线 IO 中断阻塞挂起时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnabledIOEventSync(byte slaveAddress, int registerAddress = -1, RegisterType type = RegisterType.DiscreteInput);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisableIOEventSync(byte slaveAddress, int registerAddress = -1, RegisterType type = RegisterType.DiscreteInput, int timeout = -1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用IO事件同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用IO事件同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModbusDeviceManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallEventName(String eventName);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallEventName(String eventName, String modbusName);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallEventType(string eventType, string modbusName);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modbus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP/UDP/SerialPort/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,7 +1102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1246,11 +1418,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1318,27 +1503,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1366,12 +1536,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1402,12 +1566,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1435,6 +1593,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1447,9 +1635,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1477,32 +1680,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1901,449 +2122,449 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="9.5" style="53" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="53"/>
+    <col min="1" max="10" width="9.5" style="44" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+    </row>
+    <row r="5" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+    </row>
+    <row r="6" spans="1:10" ht="213" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-    </row>
-    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="65" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+    </row>
+    <row r="9" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-    </row>
-    <row r="5" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="62" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-    </row>
-    <row r="6" spans="1:10" ht="213" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-    </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="65" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-    </row>
-    <row r="9" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="62"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xStn4FX/g4cXgsgH2RQdYJVsSt1ctmHZM7Ghpbu5gPrAYiq546Xs3WTbCUJ95L8SsDpBMLJqaHx0Ys1sNWQlng==" saltValue="QiR6iGw/dw+0I8TmFlyFZg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -2546,7 +2767,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -2599,255 +2820,408 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" style="21" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="53.625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="30" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="21"/>
+    <col min="2" max="2" width="11.75" style="21" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="21" customWidth="1"/>
+    <col min="4" max="4" width="61.375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21"/>
+    <col min="7" max="7" width="10" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="30" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:7" s="25" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="62"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="56">
+        <v>1</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="77" t="s">
+      <c r="D3" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="37">
+        <v>2</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="56">
+        <v>4</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="35">
+        <v>5</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="35">
+        <v>6</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="35">
+        <v>7</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="35">
+        <v>8</v>
+      </c>
+      <c r="B9" s="70"/>
+      <c r="C9" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="36"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="37">
+        <v>9</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="56">
+        <v>10</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="58"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="37">
+        <v>11</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="56">
+        <v>12</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="35">
+        <v>13</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="35">
+        <v>14</v>
+      </c>
+      <c r="B15" s="70"/>
+      <c r="C15" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="35">
+        <v>15</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="36"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37">
+        <v>16</v>
+      </c>
+      <c r="B17" s="68"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="59">
+        <v>17</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="78" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="79">
+      <c r="D18" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="61"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="37">
+        <v>18</v>
+      </c>
+      <c r="B19" s="72"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="56">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="82"/>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="42">
+      <c r="B23" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="58"/>
+    </row>
+    <row r="24" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="35">
         <v>2</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="43"/>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="42">
+      <c r="B24" s="70"/>
+      <c r="C24" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="36"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="37">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="43"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="42">
+      <c r="B25" s="68"/>
+      <c r="C25" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="39"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="56">
         <v>4</v>
       </c>
-      <c r="B5" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="43"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="42">
+      <c r="B26" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="58"/>
+    </row>
+    <row r="27" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="35">
         <v>5</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="43"/>
-    </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="42">
+      <c r="B27" s="70"/>
+      <c r="C27" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="36"/>
+    </row>
+    <row r="28" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="37">
         <v>6</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="43"/>
-    </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="42">
+      <c r="B28" s="68"/>
+      <c r="C28" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="39"/>
+    </row>
+    <row r="29" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="59">
         <v>7</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="43"/>
-    </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="42">
+      <c r="B29" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="61"/>
+    </row>
+    <row r="30" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="37">
         <v>8</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="43"/>
-    </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="42">
-        <v>9</v>
-      </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="43"/>
-    </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="42">
-        <v>10</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="43"/>
-    </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="42">
-        <v>11</v>
-      </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="43"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="42">
-        <v>12</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="43"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="42">
-        <v>13</v>
-      </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="43"/>
-    </row>
-    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="42">
-        <v>14</v>
-      </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="43"/>
-    </row>
-    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="42">
-        <v>15</v>
-      </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="43"/>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="42">
-        <v>16</v>
-      </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="43"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="42">
-        <v>17</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="E18" s="43"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44">
-        <v>18</v>
-      </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B18:B19"/>
@@ -2857,12 +3231,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2875,415 +3249,415 @@
     <col min="6" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="30" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:5" s="25" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="47" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="57">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="59"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="33"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="47" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="42" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="32">
+      <c r="A7" s="27">
         <v>6</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="32">
+      <c r="A8" s="27">
         <v>7</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="32">
+      <c r="A9" s="27">
         <v>8</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="74"/>
+      <c r="C9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="32">
+      <c r="A10" s="27">
         <v>9</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="28" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="32">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="33"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="32">
+      <c r="A12" s="27">
         <v>11</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="32">
+      <c r="A13" s="27">
         <v>12</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="33"/>
+      <c r="C13" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="32">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="33"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="32">
+      <c r="A15" s="27">
         <v>14</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="47" t="s">
+      <c r="B15" s="77"/>
+      <c r="C15" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="43" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="32">
+      <c r="A16" s="27">
         <v>15</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="37"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="32">
+      <c r="A17" s="27">
         <v>16</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="33"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5" ht="99.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="32">
+      <c r="A18" s="27">
         <v>17</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="42" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="32">
+      <c r="A19" s="27">
         <v>18</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="74"/>
+      <c r="C19" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="28"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="32">
+      <c r="A20" s="27">
         <v>19</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="31" t="s">
+      <c r="B20" s="74"/>
+      <c r="C20" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="33"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="32">
+      <c r="A21" s="27">
         <v>20</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="74"/>
+      <c r="C21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="32">
+      <c r="A22" s="27">
         <v>21</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="74"/>
+      <c r="C22" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="33"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="32">
+      <c r="A23" s="27">
         <v>22</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="31" t="s">
+      <c r="B23" s="74"/>
+      <c r="C23" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="33"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="32">
+      <c r="A24" s="27">
         <v>23</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="33"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="32">
+      <c r="A25" s="27">
         <v>24</v>
       </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="33"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="32">
+      <c r="A26" s="27">
         <v>25</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="28" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="32">
+      <c r="A27" s="27">
         <v>26</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="31" t="s">
+      <c r="B27" s="74"/>
+      <c r="C27" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="33"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="32">
+      <c r="A28" s="27">
         <v>27</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="31" t="s">
+      <c r="B28" s="74"/>
+      <c r="C28" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="32">
+      <c r="A29" s="27">
         <v>28</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="31" t="s">
+      <c r="B29" s="74"/>
+      <c r="C29" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="33"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="32">
+      <c r="A30" s="27">
         <v>29</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="31" t="s">
+      <c r="B30" s="74"/>
+      <c r="C30" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="33"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="32">
+      <c r="A31" s="27">
         <v>30</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="33"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
+      <c r="A32" s="29">
         <v>31</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3297,25 +3671,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="51" customWidth="1"/>
-    <col min="3" max="3" width="62" style="23" customWidth="1"/>
-    <col min="4" max="4" width="40.875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="5.375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="95" customWidth="1"/>
+    <col min="3" max="3" width="70.25" style="22" customWidth="1"/>
+    <col min="4" max="4" width="40.875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="83" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
@@ -3332,508 +3706,678 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="78"/>
+      <c r="C9" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="78"/>
+      <c r="C10" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="26"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="26"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="24" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="78"/>
+      <c r="C13" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="78"/>
+      <c r="C15" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="26"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="24" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="26"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="78"/>
+      <c r="C17" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="26"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="78"/>
+      <c r="C19" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="26"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="26"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="78"/>
+      <c r="C21" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="26"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="78"/>
+      <c r="C22" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="26"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="78"/>
+      <c r="C23" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="78"/>
+      <c r="C24" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+      <c r="B25" s="80"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="94"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="24" t="s">
+      <c r="B27" s="78"/>
+      <c r="C27" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="24" t="s">
+      <c r="B28" s="78"/>
+      <c r="C28" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="27"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="24" t="s">
+      <c r="B29" s="78"/>
+      <c r="C29" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="82">
         <v>29</v>
       </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
+      <c r="B30" s="79"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="84"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="24" t="s">
+      <c r="B31" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="27"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D31" s="87"/>
+      <c r="E31" s="88"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="24" t="s">
+      <c r="B32" s="78"/>
+      <c r="C32" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="27"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="24" t="s">
+      <c r="B33" s="78"/>
+      <c r="C33" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="27"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+      <c r="B34" s="80"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="27"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="72"/>
-      <c r="C36" s="24" t="s">
+      <c r="B36" s="78"/>
+      <c r="C36" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="27"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="24" t="s">
+      <c r="B37" s="78"/>
+      <c r="C37" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="27"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="24" t="s">
+      <c r="B38" s="78"/>
+      <c r="C38" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="27"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="24" t="s">
+      <c r="B39" s="78"/>
+      <c r="C39" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="27"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="72"/>
-      <c r="C40" s="24" t="s">
+      <c r="B40" s="78"/>
+      <c r="C40" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="27"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="24" t="s">
+      <c r="B41" s="78"/>
+      <c r="C41" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="27"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="24" t="s">
+      <c r="B42" s="78"/>
+      <c r="C42" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="27"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="24" t="s">
+      <c r="B43" s="78"/>
+      <c r="C43" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="27"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="38" t="s">
+      <c r="B44" s="79"/>
+      <c r="C44" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
-    </row>
-    <row r="45" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="5">
+      <c r="D44" s="33"/>
+      <c r="E44" s="84"/>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="82">
         <v>44</v>
       </c>
-      <c r="B45" s="74"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="29"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="84"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="85"/>
+      <c r="B46" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="87"/>
+      <c r="E46" s="88"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="89"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="24"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="89"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="89"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="24"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="89"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="89"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="89"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="24"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="89"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="24"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="89"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="24"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="89"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="89"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="24"/>
+    </row>
+    <row r="57" spans="1:5" ht="33" x14ac:dyDescent="0.15">
+      <c r="A57" s="89"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E57" s="24"/>
+    </row>
+    <row r="58" spans="1:5" ht="33" x14ac:dyDescent="0.15">
+      <c r="A58" s="89"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" s="24"/>
+    </row>
+    <row r="59" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="91"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="94"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="85"/>
+      <c r="B60" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" s="87"/>
+      <c r="E60" s="88"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="89"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" s="23"/>
+      <c r="E61" s="24"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="89"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" s="23"/>
+      <c r="E62" s="24"/>
+    </row>
+    <row r="63" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="91"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="94"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B60:B63"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="B35:B45"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B46:B59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MediaPlayerPro/操作及配置说明.xlsx
+++ b/MediaPlayerPro/操作及配置说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="操作及配置说明" sheetId="5" r:id="rId1"/>
@@ -2629,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3188,8 +3188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/MediaPlayerPro/操作及配置说明.xlsx
+++ b/MediaPlayerPro/操作及配置说明.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="292">
   <si>
     <t>快捷键</t>
   </si>
@@ -187,20 +187,6 @@
   </si>
   <si>
     <t>Margin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Window/
-BackgroundContainer/
-BackgroundPlayer/
-BackgroundButtons/
-MiddleContainer/
-MiddlePlayer/
-MiddleButtons/
-ForegroundContainer/
-ForegroundPlayer/
-ForegroundButtons/
-Button/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -694,10 +680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">        三层级容器 Background, Middle, Foreground；每层容器包括了 Player, Buttons 对象；Player 用于播放视频、图片资源，Buttons 用于显示按扭资源；所有元素均为显示对象，可以设置其显示对象相关的属性值 (见常用访问属性列表)；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>◆ ID&amp;业务逻辑层级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -887,18 +869,6 @@
   </si>
   <si>
     <t>DisableIOEventSync(byte slaveAddress, int registerAddress = -1, RegisterType type = RegisterType.DiscreteInput, int timeout = -1);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CallEventName(string itemID, string eventName)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CallButtonEvent(string buttonContainer, string buttonName)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CallButtonEvent(string itemID, string buttonContainer, string buttonName)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -911,10 +881,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指定的按扭层容器中执行指定的按扭名称事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指定Item.@ID, 指定按扭层容器中执行指定的按扭名称事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1019,10 +985,6 @@
   </si>
   <si>
     <t>必选属性，连接的名称，唯一名称，可用于调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必选属性，连接类型，支持的连接类型包括：SerialPort/TcpClient/UdpClient/TcpServer/UdpServer/ModbusRtu/ModbusTcp/ModbusUdp/ModbusTcpRtu/ModbusUdpRtu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1375,6 +1337,32 @@
   </si>
   <si>
     <t>F5/Ctrl+R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        三层级播放容器 Background, Middle, Foreground；Player 用于播放视频、图片资源，Buttons 用于显示按扭资源；所有元素均为显示对象，可以设置其显示对象相关的属性值 (见常用访问属性列表)；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window/
+ButtonContainer/
+BackgroundPlayer/
+MiddlePlayer/
+ForegroundPlayer/
+Button/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必选属性，连接类型，支持的连接类型包括：见&lt;常用枚举值&gt;
+SerialPort/TcpClient/UdpClient/TcpServer/UdpServer/ModbusRtu/ModbusTcp/ModbusUdp/ModbusTcpRtu/ModbusUdpRtu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallEventName(int itemID, string eventName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallButtonEvent(int itemID, string buttonName)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1496,7 +1484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1847,11 +1835,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2060,84 +2148,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2146,15 +2156,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2187,16 +2188,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2205,37 +2248,136 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2259,38 +2401,34 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>702253</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>27709</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25978</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>22514</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2675659</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>319923</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9206</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="702253" y="2313709"/>
-          <a:ext cx="5866534" cy="2647950"/>
+          <a:off x="7299614" y="25977"/>
+          <a:ext cx="3714286" cy="7942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2301,20 +2439,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>25978</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>25977</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>687915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>319923</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>400789</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>716534</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2743200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2327,8 +2465,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7299614" y="25977"/>
-          <a:ext cx="3714286" cy="7942857"/>
+          <a:off x="0" y="4328582"/>
+          <a:ext cx="7193534" cy="2741085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2630,7 +2768,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:J10"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2640,526 +2778,503 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+    </row>
+    <row r="2" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-    </row>
-    <row r="2" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="72" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+    </row>
+    <row r="4" spans="1:10" s="62" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+    </row>
+    <row r="5" spans="1:10" s="62" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+    </row>
+    <row r="6" spans="1:10" s="62" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+    </row>
+    <row r="7" spans="1:10" s="62" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+    </row>
+    <row r="8" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="95" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+    </row>
+    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+    </row>
+    <row r="10" spans="1:10" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+    </row>
+    <row r="13" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-    </row>
-    <row r="4" spans="1:10" s="62" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10" s="62" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="70" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-    </row>
-    <row r="6" spans="1:10" s="62" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-    </row>
-    <row r="7" spans="1:10" s="62" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-    </row>
-    <row r="8" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-    </row>
-    <row r="9" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="70" t="s">
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-    </row>
-    <row r="10" spans="1:10" ht="213" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-    </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="73" t="s">
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-    </row>
-    <row r="13" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="73" t="s">
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="70" t="s">
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="70"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
+      <c r="A38" s="92"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:J21"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -3176,6 +3291,29 @@
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3232,10 +3370,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -3303,7 +3441,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -3315,7 +3453,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -3327,7 +3465,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -3339,7 +3477,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -3394,14 +3532,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="109" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="112" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="80" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="83" customWidth="1"/>
     <col min="3" max="3" width="20.125" style="11" customWidth="1"/>
     <col min="4" max="4" width="38.375" style="11" customWidth="1"/>
     <col min="5" max="5" width="21.125" style="11" customWidth="1"/>
@@ -3411,33 +3549,33 @@
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="55">
         <v>0</v>
       </c>
-      <c r="B3" s="117" t="s">
-        <v>256</v>
+      <c r="B3" s="102" t="s">
+        <v>249</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E3" s="57"/>
     </row>
@@ -3445,12 +3583,12 @@
       <c r="A4" s="34">
         <v>1</v>
       </c>
-      <c r="B4" s="113"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="33" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E4" s="35"/>
     </row>
@@ -3458,12 +3596,12 @@
       <c r="A5" s="36">
         <v>2</v>
       </c>
-      <c r="B5" s="118"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="37" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E5" s="38"/>
     </row>
@@ -3471,14 +3609,14 @@
       <c r="A6" s="58">
         <v>0</v>
       </c>
-      <c r="B6" s="116" t="s">
-        <v>260</v>
+      <c r="B6" s="99" t="s">
+        <v>253</v>
       </c>
       <c r="C6" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="59" t="s">
         <v>261</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>268</v>
       </c>
       <c r="E6" s="60"/>
     </row>
@@ -3486,12 +3624,12 @@
       <c r="A7" s="34">
         <v>1</v>
       </c>
-      <c r="B7" s="113"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="33" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E7" s="35"/>
     </row>
@@ -3499,180 +3637,180 @@
       <c r="A8" s="34">
         <v>2</v>
       </c>
-      <c r="B8" s="113"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="33" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="119">
+      <c r="A9" s="84">
         <v>3</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="121" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" s="121" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" s="122"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="101"/>
+      <c r="C9" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="86"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55"/>
-      <c r="B10" s="123" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="134" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="130" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="131"/>
+      <c r="E10" s="135"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="58"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>288</v>
-      </c>
-      <c r="E11" s="60"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="130" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="131" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="133"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="35"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="137" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="127"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="E13" s="35"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="138" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="139" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" s="127"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="E14" s="35"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="139" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="127"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="E15" s="35"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="126"/>
+      <c r="C15" s="138" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="139" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="127"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="35"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="126"/>
+      <c r="C16" s="140" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="141" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="127"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E17" s="35"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="131" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="127"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="34"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="E18" s="35"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="142" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="143" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" s="127"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="E19" s="35"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="144" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="145" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" s="127"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="E20" s="35"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="144" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="145" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="127"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="E21" s="35"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="144" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="145" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" s="127"/>
     </row>
     <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="E22" s="38"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="146" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="147" t="s">
+        <v>268</v>
+      </c>
+      <c r="E22" s="129"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="58">
         <v>0</v>
       </c>
-      <c r="B23" s="100" t="s">
-        <v>243</v>
+      <c r="B23" s="97" t="s">
+        <v>236</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D23" s="59"/>
       <c r="E23" s="60"/>
@@ -3681,12 +3819,12 @@
       <c r="A24" s="34">
         <v>1</v>
       </c>
-      <c r="B24" s="100"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="33" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E24" s="35"/>
     </row>
@@ -3694,12 +3832,12 @@
       <c r="A25" s="34">
         <v>2</v>
       </c>
-      <c r="B25" s="100"/>
-      <c r="C25" s="110" t="s">
-        <v>239</v>
+      <c r="B25" s="97"/>
+      <c r="C25" s="81" t="s">
+        <v>232</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E25" s="35"/>
     </row>
@@ -3707,37 +3845,37 @@
       <c r="A26" s="34">
         <v>3</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="110" t="s">
-        <v>240</v>
+      <c r="B26" s="97"/>
+      <c r="C26" s="81" t="s">
+        <v>233</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E26" s="35"/>
     </row>
     <row r="27" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="119">
+      <c r="A27" s="84">
         <v>4</v>
       </c>
-      <c r="B27" s="100"/>
-      <c r="C27" s="125" t="s">
-        <v>241</v>
-      </c>
-      <c r="D27" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="E27" s="122"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="85" t="s">
+        <v>275</v>
+      </c>
+      <c r="E27" s="86"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="55">
         <v>0</v>
       </c>
-      <c r="B28" s="99" t="s">
-        <v>244</v>
-      </c>
-      <c r="C28" s="126" t="s">
-        <v>286</v>
+      <c r="B28" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" s="88" t="s">
+        <v>279</v>
       </c>
       <c r="D28" s="56"/>
       <c r="E28" s="57"/>
@@ -3746,9 +3884,9 @@
       <c r="A29" s="34">
         <v>1</v>
       </c>
-      <c r="B29" s="100"/>
-      <c r="C29" s="110" t="s">
-        <v>245</v>
+      <c r="B29" s="97"/>
+      <c r="C29" s="81" t="s">
+        <v>238</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="35"/>
@@ -3757,9 +3895,9 @@
       <c r="A30" s="34">
         <v>2</v>
       </c>
-      <c r="B30" s="100"/>
-      <c r="C30" s="110" t="s">
-        <v>246</v>
+      <c r="B30" s="97"/>
+      <c r="C30" s="81" t="s">
+        <v>239</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="35"/>
@@ -3768,9 +3906,9 @@
       <c r="A31" s="34">
         <v>3</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="110" t="s">
-        <v>247</v>
+      <c r="B31" s="97"/>
+      <c r="C31" s="81" t="s">
+        <v>240</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="35"/>
@@ -3779,9 +3917,9 @@
       <c r="A32" s="34">
         <v>4</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="110" t="s">
-        <v>248</v>
+      <c r="B32" s="97"/>
+      <c r="C32" s="81" t="s">
+        <v>241</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="35"/>
@@ -3790,9 +3928,9 @@
       <c r="A33" s="34">
         <v>5</v>
       </c>
-      <c r="B33" s="100"/>
-      <c r="C33" s="110" t="s">
-        <v>249</v>
+      <c r="B33" s="97"/>
+      <c r="C33" s="81" t="s">
+        <v>242</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="35"/>
@@ -3801,9 +3939,9 @@
       <c r="A34" s="34">
         <v>6</v>
       </c>
-      <c r="B34" s="100"/>
-      <c r="C34" s="110" t="s">
-        <v>250</v>
+      <c r="B34" s="97"/>
+      <c r="C34" s="81" t="s">
+        <v>243</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="35"/>
@@ -3812,9 +3950,9 @@
       <c r="A35" s="34">
         <v>7</v>
       </c>
-      <c r="B35" s="100"/>
-      <c r="C35" s="110" t="s">
-        <v>251</v>
+      <c r="B35" s="97"/>
+      <c r="C35" s="81" t="s">
+        <v>244</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="35"/>
@@ -3823,9 +3961,9 @@
       <c r="A36" s="34">
         <v>8</v>
       </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="110" t="s">
-        <v>252</v>
+      <c r="B36" s="97"/>
+      <c r="C36" s="81" t="s">
+        <v>245</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="35"/>
@@ -3834,9 +3972,9 @@
       <c r="A37" s="34">
         <v>9</v>
       </c>
-      <c r="B37" s="100"/>
-      <c r="C37" s="110" t="s">
-        <v>253</v>
+      <c r="B37" s="97"/>
+      <c r="C37" s="81" t="s">
+        <v>246</v>
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="35"/>
@@ -3845,9 +3983,9 @@
       <c r="A38" s="36">
         <v>10</v>
       </c>
-      <c r="B38" s="101"/>
-      <c r="C38" s="111" t="s">
-        <v>254</v>
+      <c r="B38" s="98"/>
+      <c r="C38" s="82" t="s">
+        <v>247</v>
       </c>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
@@ -3870,7 +4008,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3879,7 +4017,7 @@
     <col min="2" max="2" width="14" style="20" customWidth="1"/>
     <col min="3" max="3" width="25.25" style="20" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="100.875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="103.875" style="20" customWidth="1"/>
     <col min="6" max="6" width="54" style="20" customWidth="1"/>
     <col min="7" max="7" width="9" style="20"/>
     <col min="8" max="8" width="10" style="20" customWidth="1"/>
@@ -3892,16 +4030,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>201</v>
-      </c>
       <c r="D2" s="53" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F2" s="54" t="s">
         <v>25</v>
@@ -3912,45 +4050,45 @@
       <c r="A3" s="55">
         <v>1</v>
       </c>
-      <c r="B3" s="76" t="s">
-        <v>197</v>
+      <c r="B3" s="105" t="s">
+        <v>191</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" s="102" t="s">
-        <v>233</v>
+        <v>206</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>226</v>
       </c>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="96"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="97" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97" t="s">
-        <v>200</v>
-      </c>
-      <c r="F4" s="98"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="72"/>
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36">
         <v>2</v>
       </c>
-      <c r="B5" s="75"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F5" s="38"/>
       <c r="H5" s="11"/>
@@ -3959,17 +4097,17 @@
       <c r="A6" s="55">
         <v>4</v>
       </c>
-      <c r="B6" s="94" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>221</v>
+      <c r="B6" s="108" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>214</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F6" s="57"/>
       <c r="H6" s="11"/>
@@ -3978,13 +4116,13 @@
       <c r="A7" s="34">
         <v>5</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="100"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="33" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="F7" s="35"/>
       <c r="H7" s="11"/>
@@ -3993,13 +4131,13 @@
       <c r="A8" s="34">
         <v>6</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="100"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="33" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F8" s="35"/>
       <c r="H8" s="11"/>
@@ -4008,13 +4146,13 @@
       <c r="A9" s="34">
         <v>7</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="100"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="33" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F9" s="35"/>
       <c r="H9" s="11"/>
@@ -4023,8 +4161,8 @@
       <c r="A10" s="34">
         <v>8</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="100"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="35"/>
@@ -4034,8 +4172,8 @@
       <c r="A11" s="36">
         <v>9</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="101"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
       <c r="F11" s="38"/>
@@ -4044,17 +4182,17 @@
       <c r="A12" s="55">
         <v>10</v>
       </c>
-      <c r="B12" s="76" t="s">
-        <v>214</v>
+      <c r="B12" s="105" t="s">
+        <v>207</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F12" s="57"/>
     </row>
@@ -4062,7 +4200,7 @@
       <c r="A13" s="36">
         <v>11</v>
       </c>
-      <c r="B13" s="75"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
@@ -4072,11 +4210,11 @@
       <c r="A14" s="55">
         <v>12</v>
       </c>
-      <c r="B14" s="94" t="s">
-        <v>219</v>
+      <c r="B14" s="108" t="s">
+        <v>212</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
@@ -4086,7 +4224,7 @@
       <c r="A15" s="34">
         <v>13</v>
       </c>
-      <c r="B15" s="77"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -4096,7 +4234,7 @@
       <c r="A16" s="34">
         <v>14</v>
       </c>
-      <c r="B16" s="77"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -4106,7 +4244,7 @@
       <c r="A17" s="34">
         <v>15</v>
       </c>
-      <c r="B17" s="77"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -4116,7 +4254,7 @@
       <c r="A18" s="36">
         <v>16</v>
       </c>
-      <c r="B18" s="75"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
@@ -4126,7 +4264,7 @@
       <c r="A19" s="58">
         <v>17</v>
       </c>
-      <c r="B19" s="93"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
@@ -4136,7 +4274,7 @@
       <c r="A20" s="36">
         <v>18</v>
       </c>
-      <c r="B20" s="79"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
@@ -4144,12 +4282,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4180,22 +4318,22 @@
     <row r="1" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" s="24" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H2" s="61"/>
     </row>
@@ -4203,17 +4341,17 @@
       <c r="A3" s="55">
         <v>1</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="95" t="s">
-        <v>196</v>
+      <c r="C3" s="112" t="s">
+        <v>190</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" s="57"/>
       <c r="H3" s="11"/>
@@ -4222,8 +4360,8 @@
       <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="78"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
       <c r="F4" s="38"/>
@@ -4233,12 +4371,12 @@
       <c r="A5" s="55">
         <v>4</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="78"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="57"/>
@@ -4248,13 +4386,13 @@
       <c r="A6" s="34">
         <v>5</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F6" s="35"/>
       <c r="H6" s="11"/>
@@ -4263,13 +4401,13 @@
       <c r="A7" s="34">
         <v>6</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="106"/>
       <c r="D7" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="35"/>
       <c r="H7" s="11"/>
@@ -4278,13 +4416,13 @@
       <c r="A8" s="34">
         <v>7</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" s="35"/>
       <c r="H8" s="11"/>
@@ -4293,10 +4431,10 @@
       <c r="A9" s="34">
         <v>8</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="35"/>
@@ -4306,8 +4444,8 @@
       <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="78"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
@@ -4316,15 +4454,15 @@
       <c r="A11" s="55">
         <v>10</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="106"/>
+      <c r="D11" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="56" t="s">
-        <v>114</v>
-      </c>
       <c r="E11" s="56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" s="57"/>
     </row>
@@ -4332,8 +4470,8 @@
       <c r="A12" s="36">
         <v>11</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="78"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
@@ -4342,12 +4480,12 @@
       <c r="A13" s="55">
         <v>12</v>
       </c>
-      <c r="B13" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="78"/>
+      <c r="B13" s="108" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="106"/>
       <c r="D13" s="56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="57"/>
@@ -4356,10 +4494,10 @@
       <c r="A14" s="34">
         <v>13</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="106"/>
       <c r="D14" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="35"/>
@@ -4368,13 +4506,13 @@
       <c r="A15" s="34">
         <v>14</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>135</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>137</v>
       </c>
       <c r="F15" s="35"/>
     </row>
@@ -4382,13 +4520,13 @@
       <c r="A16" s="34">
         <v>15</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F16" s="35"/>
     </row>
@@ -4396,8 +4534,8 @@
       <c r="A17" s="36">
         <v>16</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="78"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="106"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
@@ -4406,15 +4544,15 @@
       <c r="A18" s="58">
         <v>17</v>
       </c>
-      <c r="B18" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="78"/>
+      <c r="B18" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="106"/>
       <c r="D18" s="59" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F18" s="60"/>
     </row>
@@ -4422,8 +4560,8 @@
       <c r="A19" s="36">
         <v>18</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
@@ -4431,33 +4569,33 @@
     <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="55">
         <v>1</v>
       </c>
-      <c r="B23" s="76" t="s">
-        <v>140</v>
+      <c r="B23" s="105" t="s">
+        <v>138</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E23" s="57"/>
     </row>
@@ -4465,12 +4603,12 @@
       <c r="A24" s="34">
         <v>2</v>
       </c>
-      <c r="B24" s="77"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E24" s="35"/>
     </row>
@@ -4478,12 +4616,12 @@
       <c r="A25" s="36">
         <v>3</v>
       </c>
-      <c r="B25" s="75"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E25" s="38"/>
     </row>
@@ -4491,14 +4629,14 @@
       <c r="A26" s="55">
         <v>4</v>
       </c>
-      <c r="B26" s="76" t="s">
-        <v>140</v>
+      <c r="B26" s="105" t="s">
+        <v>138</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E26" s="57"/>
     </row>
@@ -4506,12 +4644,12 @@
       <c r="A27" s="34">
         <v>5</v>
       </c>
-      <c r="B27" s="77"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E27" s="35"/>
     </row>
@@ -4519,12 +4657,12 @@
       <c r="A28" s="36">
         <v>6</v>
       </c>
-      <c r="B28" s="75"/>
+      <c r="B28" s="107"/>
       <c r="C28" s="37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E28" s="38"/>
     </row>
@@ -4532,14 +4670,14 @@
       <c r="A29" s="58">
         <v>7</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="59" t="s">
         <v>147</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>149</v>
       </c>
       <c r="E29" s="60"/>
     </row>
@@ -4547,12 +4685,12 @@
       <c r="A30" s="36">
         <v>8</v>
       </c>
-      <c r="B30" s="75"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E30" s="38"/>
     </row>
@@ -4577,8 +4715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4599,7 +4737,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>21</v>
@@ -4612,14 +4750,14 @@
       <c r="A2" s="47">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
-        <v>46</v>
+      <c r="B2" s="114" t="s">
+        <v>288</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="49"/>
     </row>
@@ -4627,12 +4765,12 @@
       <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="81"/>
+      <c r="B3" s="115"/>
       <c r="C3" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="27"/>
     </row>
@@ -4640,114 +4778,114 @@
       <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="81"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="39" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="81"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="81"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="81"/>
+      <c r="B9" s="115"/>
       <c r="C9" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="81"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="129" t="s">
-        <v>120</v>
+      <c r="B11" s="115"/>
+      <c r="C11" s="91" t="s">
+        <v>119</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="27"/>
@@ -4756,7 +4894,7 @@
       <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="81"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="27"/>
@@ -4765,11 +4903,11 @@
       <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="117" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="27"/>
@@ -4778,9 +4916,9 @@
       <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="84"/>
+      <c r="B14" s="118"/>
       <c r="C14" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="27"/>
@@ -4789,24 +4927,24 @@
       <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="84"/>
+      <c r="B15" s="118"/>
       <c r="C15" s="39" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="129" t="s">
-        <v>120</v>
+      <c r="B16" s="118"/>
+      <c r="C16" s="91" t="s">
+        <v>119</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="31"/>
@@ -4815,7 +4953,7 @@
       <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="80"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="27"/>
@@ -4824,24 +4962,24 @@
       <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="81" t="s">
-        <v>81</v>
+      <c r="B18" s="115" t="s">
+        <v>80</v>
       </c>
       <c r="C18" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="41" t="s">
         <v>55</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="81"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="25" t="s">
         <v>36</v>
       </c>
@@ -4852,12 +4990,12 @@
       <c r="A20" s="26">
         <v>19</v>
       </c>
-      <c r="B20" s="81"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="27"/>
     </row>
@@ -4865,12 +5003,12 @@
       <c r="A21" s="26">
         <v>20</v>
       </c>
-      <c r="B21" s="81"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E21" s="27"/>
     </row>
@@ -4878,12 +5016,12 @@
       <c r="A22" s="26">
         <v>21</v>
       </c>
-      <c r="B22" s="81"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="27"/>
     </row>
@@ -4891,12 +5029,12 @@
       <c r="A23" s="26">
         <v>22</v>
       </c>
-      <c r="B23" s="81"/>
+      <c r="B23" s="115"/>
       <c r="C23" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" s="27"/>
     </row>
@@ -4904,9 +5042,9 @@
       <c r="A24" s="26">
         <v>23</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="129" t="s">
-        <v>121</v>
+      <c r="B24" s="115"/>
+      <c r="C24" s="91" t="s">
+        <v>120</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="27"/>
@@ -4915,7 +5053,7 @@
       <c r="A25" s="26">
         <v>24</v>
       </c>
-      <c r="B25" s="81"/>
+      <c r="B25" s="115"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="27"/>
@@ -4924,24 +5062,24 @@
       <c r="A26" s="26">
         <v>25</v>
       </c>
-      <c r="B26" s="81" t="s">
-        <v>82</v>
+      <c r="B26" s="115" t="s">
+        <v>81</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="26">
         <v>26</v>
       </c>
-      <c r="B27" s="81"/>
+      <c r="B27" s="115"/>
       <c r="C27" s="25" t="s">
         <v>41</v>
       </c>
@@ -4952,7 +5090,7 @@
       <c r="A28" s="26">
         <v>27</v>
       </c>
-      <c r="B28" s="81"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="25" t="s">
         <v>42</v>
       </c>
@@ -4963,7 +5101,7 @@
       <c r="A29" s="26">
         <v>28</v>
       </c>
-      <c r="B29" s="81"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="25" t="s">
         <v>43</v>
       </c>
@@ -4974,7 +5112,7 @@
       <c r="A30" s="26">
         <v>29</v>
       </c>
-      <c r="B30" s="81"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="25" t="s">
         <v>44</v>
       </c>
@@ -4985,9 +5123,9 @@
       <c r="A31" s="26">
         <v>30</v>
       </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="129" t="s">
-        <v>120</v>
+      <c r="B31" s="115"/>
+      <c r="C31" s="91" t="s">
+        <v>119</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="27"/>
@@ -4996,7 +5134,7 @@
       <c r="A32" s="28">
         <v>31</v>
       </c>
-      <c r="B32" s="82"/>
+      <c r="B32" s="116"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="30"/>
@@ -5017,8 +5155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5039,7 +5177,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>25</v>
@@ -5052,11 +5190,11 @@
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="88" t="s">
-        <v>177</v>
+      <c r="B2" s="124" t="s">
+        <v>172</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="65"/>
       <c r="E2" s="66"/>
@@ -5065,12 +5203,12 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="89"/>
+      <c r="B3" s="122"/>
       <c r="C3" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="23"/>
     </row>
@@ -5078,12 +5216,12 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="107" t="s">
-        <v>232</v>
+      <c r="B4" s="122"/>
+      <c r="C4" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>225</v>
       </c>
       <c r="E4" s="23"/>
     </row>
@@ -5091,12 +5229,12 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="107" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="108" t="s">
-        <v>181</v>
+      <c r="B5" s="122"/>
+      <c r="C5" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>175</v>
       </c>
       <c r="E5" s="23"/>
     </row>
@@ -5104,34 +5242,34 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="107" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="107"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="78"/>
       <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="107"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="78"/>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="89"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E8" s="23"/>
     </row>
@@ -5139,9 +5277,9 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="89"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
@@ -5150,45 +5288,45 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="105" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="105"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="76"/>
       <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="105"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="76"/>
       <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="105" t="s">
-        <v>229</v>
-      </c>
-      <c r="D12" s="105"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="76"/>
       <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="89"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="23"/>
     </row>
@@ -5196,45 +5334,45 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="106" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" s="106"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="77"/>
       <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="106"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="77"/>
       <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="106" t="s">
-        <v>227</v>
-      </c>
-      <c r="D16" s="106"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="77"/>
       <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="103" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="103" t="s">
-        <v>100</v>
+      <c r="B17" s="122"/>
+      <c r="C17" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>99</v>
       </c>
       <c r="E17" s="23"/>
     </row>
@@ -5242,12 +5380,12 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="103" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="103" t="s">
-        <v>100</v>
+      <c r="B18" s="122"/>
+      <c r="C18" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>99</v>
       </c>
       <c r="E18" s="23"/>
     </row>
@@ -5255,25 +5393,25 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="103" t="s">
-        <v>178</v>
+      <c r="B19" s="122"/>
+      <c r="C19" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>173</v>
       </c>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="103" t="s">
-        <v>175</v>
-      </c>
-      <c r="D20" s="103" t="s">
-        <v>179</v>
+      <c r="B20" s="122"/>
+      <c r="C20" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>174</v>
       </c>
       <c r="E20" s="23"/>
     </row>
@@ -5281,22 +5419,18 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="103" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="104" t="s">
-        <v>180</v>
-      </c>
+      <c r="B21" s="122"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="89"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
@@ -5305,9 +5439,9 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="89"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
@@ -5316,9 +5450,9 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="127" t="s">
-        <v>105</v>
+      <c r="B24" s="122"/>
+      <c r="C24" s="89" t="s">
+        <v>104</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="23"/>
@@ -5327,7 +5461,7 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="90"/>
+      <c r="B25" s="125"/>
       <c r="C25" s="67"/>
       <c r="D25" s="67"/>
       <c r="E25" s="68"/>
@@ -5336,11 +5470,11 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="65" t="s">
         <v>85</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>86</v>
       </c>
       <c r="D26" s="65"/>
       <c r="E26" s="66"/>
@@ -5349,9 +5483,9 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="89"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="23"/>
@@ -5360,12 +5494,12 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="89"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E28" s="23"/>
     </row>
@@ -5373,9 +5507,9 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="89"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="23"/>
@@ -5384,7 +5518,7 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="90"/>
+      <c r="B30" s="125"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
       <c r="E30" s="68"/>
@@ -5393,11 +5527,11 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="91" t="s">
-        <v>67</v>
+      <c r="B31" s="121" t="s">
+        <v>66</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="51"/>
@@ -5406,9 +5540,9 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="89"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="23"/>
@@ -5417,9 +5551,9 @@
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="89"/>
+      <c r="B33" s="122"/>
       <c r="C33" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="23"/>
@@ -5428,9 +5562,9 @@
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="89"/>
+      <c r="B34" s="122"/>
       <c r="C34" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="23"/>
@@ -5439,9 +5573,9 @@
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="89"/>
+      <c r="B35" s="122"/>
       <c r="C35" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="23"/>
@@ -5450,9 +5584,9 @@
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="89"/>
+      <c r="B36" s="122"/>
       <c r="C36" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="23"/>
@@ -5461,9 +5595,9 @@
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="89"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="23"/>
@@ -5472,9 +5606,9 @@
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="89"/>
+      <c r="B38" s="122"/>
       <c r="C38" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="23"/>
@@ -5483,9 +5617,9 @@
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="89"/>
+      <c r="B39" s="122"/>
       <c r="C39" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="23"/>
@@ -5494,9 +5628,9 @@
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="128" t="s">
-        <v>105</v>
+      <c r="B40" s="123"/>
+      <c r="C40" s="90" t="s">
+        <v>104</v>
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="64"/>
@@ -5505,7 +5639,7 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="92"/>
+      <c r="B41" s="123"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
       <c r="E41" s="64"/>
@@ -5514,11 +5648,11 @@
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="85" t="s">
-        <v>193</v>
+      <c r="B42" s="104" t="s">
+        <v>187</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D42" s="65"/>
       <c r="E42" s="66"/>
@@ -5527,9 +5661,9 @@
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="86"/>
+      <c r="B43" s="119"/>
       <c r="C43" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="23"/>
@@ -5538,9 +5672,9 @@
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="86"/>
+      <c r="B44" s="119"/>
       <c r="C44" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="23"/>
@@ -5549,9 +5683,9 @@
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="86"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="23"/>
@@ -5560,9 +5694,9 @@
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="86"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="23"/>
@@ -5571,9 +5705,9 @@
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="86"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="23"/>
@@ -5582,9 +5716,9 @@
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="86"/>
+      <c r="B48" s="119"/>
       <c r="C48" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="23"/>
@@ -5593,9 +5727,9 @@
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="119"/>
       <c r="C49" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="23"/>
@@ -5604,12 +5738,12 @@
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="86"/>
+      <c r="B50" s="119"/>
       <c r="C50" s="22" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E50" s="23"/>
     </row>
@@ -5617,12 +5751,12 @@
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="86"/>
+      <c r="B51" s="119"/>
       <c r="C51" s="22" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E51" s="23"/>
     </row>
@@ -5630,12 +5764,12 @@
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="86"/>
+      <c r="B52" s="119"/>
       <c r="C52" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E52" s="23"/>
     </row>
@@ -5643,12 +5777,12 @@
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="86"/>
+      <c r="B53" s="119"/>
       <c r="C53" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E53" s="23"/>
     </row>
@@ -5656,12 +5790,12 @@
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="86"/>
+      <c r="B54" s="119"/>
       <c r="C54" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E54" s="23"/>
     </row>
@@ -5669,7 +5803,7 @@
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="87"/>
+      <c r="B55" s="120"/>
       <c r="C55" s="67"/>
       <c r="D55" s="67"/>
       <c r="E55" s="68"/>
@@ -5678,11 +5812,11 @@
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="88" t="s">
-        <v>226</v>
+      <c r="B56" s="124" t="s">
+        <v>219</v>
       </c>
       <c r="C56" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D56" s="65"/>
       <c r="E56" s="66"/>
@@ -5691,9 +5825,9 @@
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="89"/>
+      <c r="B57" s="122"/>
       <c r="C57" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="23"/>
@@ -5702,9 +5836,9 @@
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="89"/>
-      <c r="C58" s="127" t="s">
-        <v>105</v>
+      <c r="B58" s="122"/>
+      <c r="C58" s="89" t="s">
+        <v>104</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="23"/>
@@ -5713,7 +5847,7 @@
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="90"/>
+      <c r="B59" s="125"/>
       <c r="C59" s="67"/>
       <c r="D59" s="67"/>
       <c r="E59" s="68"/>
@@ -5722,11 +5856,11 @@
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="85" t="s">
-        <v>225</v>
+      <c r="B60" s="104" t="s">
+        <v>218</v>
       </c>
       <c r="C60" s="65" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D60" s="65"/>
       <c r="E60" s="66"/>
@@ -5735,9 +5869,9 @@
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="86"/>
+      <c r="B61" s="119"/>
       <c r="C61" s="22" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D61" s="22"/>
       <c r="E61" s="23"/>
@@ -5746,9 +5880,9 @@
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="86"/>
+      <c r="B62" s="119"/>
       <c r="C62" s="22" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D62" s="22"/>
       <c r="E62" s="23"/>
@@ -5757,9 +5891,9 @@
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="86"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="32" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D63" s="32"/>
       <c r="E63" s="64"/>
@@ -5768,9 +5902,9 @@
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="86"/>
+      <c r="B64" s="119"/>
       <c r="C64" s="32" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D64" s="32"/>
       <c r="E64" s="64"/>
@@ -5779,9 +5913,9 @@
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="86"/>
+      <c r="B65" s="119"/>
       <c r="C65" s="32" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D65" s="32"/>
       <c r="E65" s="64"/>
@@ -5790,7 +5924,7 @@
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="86"/>
+      <c r="B66" s="119"/>
       <c r="C66" s="32"/>
       <c r="D66" s="32"/>
       <c r="E66" s="64"/>
@@ -5799,7 +5933,7 @@
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="87"/>
+      <c r="B67" s="120"/>
       <c r="C67" s="67"/>
       <c r="D67" s="67"/>
       <c r="E67" s="68"/>

--- a/MediaPlayerPro/操作及配置说明.xlsx
+++ b/MediaPlayerPro/操作及配置说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="操作及配置说明" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="298">
   <si>
     <t>快捷键</t>
   </si>
@@ -163,10 +163,6 @@
   </si>
   <si>
     <t>Loop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -608,10 +604,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OnFirstFrame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -637,10 +629,6 @@
   </si>
   <si>
     <t>Tick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Element: 元素名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1309,14 +1297,6 @@
   </si>
   <si>
     <t>Unknown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button 的 Click 事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1363,6 +1343,50 @@
   </si>
   <si>
     <t>CallButtonEvent(int itemID, string buttonName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MouseDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MouseUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MouseClick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示元素的鼠标交互事件之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示元素的鼠标交互事件之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示元素的鼠标交互事件之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrameworkElement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MouseUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementType:显示元素类型  ElementName: 显示元素名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementType:显示元素类型  ElementName: 显示元素名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementType:显示元素类型  ElementName: 显示元素名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1484,7 +1508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1931,6 +1955,32 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2212,6 +2262,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2233,6 +2325,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2248,6 +2352,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2266,12 +2376,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2314,70 +2418,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2767,7 +2817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
@@ -2778,503 +2828,526 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+    </row>
+    <row r="2" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+    </row>
+    <row r="4" spans="1:10" s="62" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+    </row>
+    <row r="5" spans="1:10" s="62" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+    </row>
+    <row r="6" spans="1:10" s="62" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="109" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+    </row>
+    <row r="7" spans="1:10" s="62" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="106" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+    </row>
+    <row r="8" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="109" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+    </row>
+    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="106" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+    </row>
+    <row r="10" spans="1:10" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="106"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="106"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-    </row>
-    <row r="2" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="94" t="s">
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+    </row>
+    <row r="13" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="106"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-    </row>
-    <row r="4" spans="1:10" s="62" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-    </row>
-    <row r="5" spans="1:10" s="62" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="92" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-    </row>
-    <row r="6" spans="1:10" s="62" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="95" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-    </row>
-    <row r="7" spans="1:10" s="62" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-    </row>
-    <row r="8" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-    </row>
-    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-    </row>
-    <row r="10" spans="1:10" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="92"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-    </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="95" t="s">
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-    </row>
-    <row r="13" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="92"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="95" t="s">
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="92"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="92"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="92"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="92"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
+      <c r="A24" s="106"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="92"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
+      <c r="A25" s="106"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="92"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="92"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="92"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="92"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
+      <c r="A29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="92"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="92"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
+      <c r="A31" s="106"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
+      <c r="A32" s="106"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
+      <c r="A33" s="106"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
+      <c r="A34" s="106"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="92"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="92"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
+      <c r="A36" s="106"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="92"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
+      <c r="A37" s="106"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="92"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
+      <c r="A38" s="106"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
+      <c r="A39" s="106"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -3291,29 +3364,6 @@
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3370,10 +3420,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -3441,7 +3491,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -3453,7 +3503,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -3465,7 +3515,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -3477,7 +3527,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -3530,10 +3580,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3549,33 +3599,33 @@
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="55">
         <v>0</v>
       </c>
-      <c r="B3" s="102" t="s">
-        <v>249</v>
+      <c r="B3" s="120" t="s">
+        <v>246</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E3" s="57"/>
     </row>
@@ -3583,12 +3633,12 @@
       <c r="A4" s="34">
         <v>1</v>
       </c>
-      <c r="B4" s="100"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="33" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E4" s="35"/>
     </row>
@@ -3596,12 +3646,12 @@
       <c r="A5" s="36">
         <v>2</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="121"/>
       <c r="C5" s="37" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E5" s="38"/>
     </row>
@@ -3609,14 +3659,14 @@
       <c r="A6" s="58">
         <v>0</v>
       </c>
-      <c r="B6" s="99" t="s">
-        <v>253</v>
+      <c r="B6" s="117" t="s">
+        <v>250</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E6" s="60"/>
     </row>
@@ -3624,12 +3674,12 @@
       <c r="A7" s="34">
         <v>1</v>
       </c>
-      <c r="B7" s="100"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="33" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E7" s="35"/>
     </row>
@@ -3637,12 +3687,12 @@
       <c r="A8" s="34">
         <v>2</v>
       </c>
-      <c r="B8" s="100"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>259</v>
       </c>
       <c r="E8" s="35"/>
     </row>
@@ -3650,353 +3700,375 @@
       <c r="A9" s="84">
         <v>3</v>
       </c>
-      <c r="B9" s="101"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="85" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E9" s="86"/>
     </row>
-    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="55"/>
-      <c r="B10" s="134" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="130" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="135"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="146" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="95"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="58"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="130" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="131" t="s">
-        <v>281</v>
-      </c>
-      <c r="E11" s="133"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="147" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="94"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="136" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="137" t="s">
-        <v>265</v>
-      </c>
-      <c r="E12" s="127"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="147" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" s="94"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="138" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="139" t="s">
-        <v>266</v>
-      </c>
-      <c r="E13" s="127"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="147" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" s="94"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="138" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="139" t="s">
-        <v>265</v>
-      </c>
-      <c r="E14" s="127"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="97" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="92"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="138" t="s">
+      <c r="B15" s="115"/>
+      <c r="C15" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" s="92"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="34"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="97" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="92"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="34"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="97" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="92"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="34"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="99" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" s="92"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="34"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="144" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="139" t="s">
-        <v>266</v>
-      </c>
-      <c r="E15" s="127"/>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="140" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="141" t="s">
-        <v>265</v>
-      </c>
-      <c r="E16" s="127"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="130" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="131" t="s">
-        <v>267</v>
-      </c>
-      <c r="E17" s="127"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="142" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="143" t="s">
-        <v>268</v>
-      </c>
-      <c r="E18" s="127"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="34"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="144" t="s">
-        <v>131</v>
-      </c>
       <c r="D19" s="145" t="s">
-        <v>269</v>
-      </c>
-      <c r="E19" s="127"/>
+        <v>264</v>
+      </c>
+      <c r="E19" s="92"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
-      <c r="B20" s="126"/>
-      <c r="C20" s="144" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="145" t="s">
-        <v>268</v>
-      </c>
-      <c r="E20" s="127"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="101" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="92"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="144" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="145" t="s">
-        <v>269</v>
-      </c>
-      <c r="E21" s="127"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="146" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="147" t="s">
-        <v>268</v>
-      </c>
-      <c r="E22" s="129"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21" s="92"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="34"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="92"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="58">
+      <c r="A23" s="34"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="102" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="92"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="36"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="93"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="58">
         <v>0</v>
       </c>
-      <c r="B23" s="97" t="s">
-        <v>236</v>
-      </c>
-      <c r="C23" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="34">
-        <v>1</v>
-      </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="E24" s="35"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="34">
-        <v>2</v>
-      </c>
-      <c r="B25" s="97"/>
-      <c r="C25" s="81" t="s">
-        <v>232</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="E25" s="35"/>
+      <c r="B25" s="111" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="34">
+        <v>1</v>
+      </c>
+      <c r="B26" s="111"/>
+      <c r="C26" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="34">
+        <v>2</v>
+      </c>
+      <c r="B27" s="111"/>
+      <c r="C27" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E27" s="35"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="34">
         <v>3</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="81" t="s">
-        <v>233</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="84">
+      <c r="B28" s="111"/>
+      <c r="C28" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="E28" s="35"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="84">
         <v>4</v>
       </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="87" t="s">
+      <c r="B29" s="111"/>
+      <c r="C29" s="87" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="E29" s="86"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="55">
+        <v>0</v>
+      </c>
+      <c r="B30" s="110" t="s">
         <v>234</v>
       </c>
-      <c r="D27" s="85" t="s">
-        <v>275</v>
-      </c>
-      <c r="E27" s="86"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="55">
-        <v>0</v>
-      </c>
-      <c r="B28" s="96" t="s">
-        <v>237</v>
-      </c>
-      <c r="C28" s="88" t="s">
-        <v>279</v>
-      </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="34">
-        <v>1</v>
-      </c>
-      <c r="B29" s="97"/>
-      <c r="C29" s="81" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="35"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="34">
-        <v>2</v>
-      </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="81" t="s">
-        <v>239</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="35"/>
+      <c r="C30" s="88" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="34">
-        <v>3</v>
-      </c>
-      <c r="B31" s="97"/>
+        <v>1</v>
+      </c>
+      <c r="B31" s="111"/>
       <c r="C31" s="81" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="35"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="34">
-        <v>4</v>
-      </c>
-      <c r="B32" s="97"/>
+        <v>2</v>
+      </c>
+      <c r="B32" s="111"/>
       <c r="C32" s="81" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="35"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="34">
-        <v>5</v>
-      </c>
-      <c r="B33" s="97"/>
+        <v>3</v>
+      </c>
+      <c r="B33" s="111"/>
       <c r="C33" s="81" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="34">
-        <v>6</v>
-      </c>
-      <c r="B34" s="97"/>
+        <v>4</v>
+      </c>
+      <c r="B34" s="111"/>
       <c r="C34" s="81" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="35"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="34">
-        <v>7</v>
-      </c>
-      <c r="B35" s="97"/>
+        <v>5</v>
+      </c>
+      <c r="B35" s="111"/>
       <c r="C35" s="81" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="35"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="34">
-        <v>8</v>
-      </c>
-      <c r="B36" s="97"/>
+        <v>6</v>
+      </c>
+      <c r="B36" s="111"/>
       <c r="C36" s="81" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="35"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="34">
-        <v>9</v>
-      </c>
-      <c r="B37" s="97"/>
+        <v>7</v>
+      </c>
+      <c r="B37" s="111"/>
       <c r="C37" s="81" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="35"/>
     </row>
-    <row r="38" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="34">
+        <v>8</v>
+      </c>
+      <c r="B38" s="111"/>
+      <c r="C38" s="81" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="35"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="34">
+        <v>9</v>
+      </c>
+      <c r="B39" s="111"/>
+      <c r="C39" s="81" t="s">
+        <v>243</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="35"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="36">
         <v>10</v>
       </c>
-      <c r="B38" s="98"/>
-      <c r="C38" s="82" t="s">
-        <v>247</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B28:B38"/>
-    <mergeCell ref="B10:B22"/>
+    <mergeCell ref="B30:B40"/>
+    <mergeCell ref="B10:B24"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B25:B29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4030,16 +4102,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F2" s="54" t="s">
         <v>25</v>
@@ -4050,32 +4122,32 @@
       <c r="A3" s="55">
         <v>1</v>
       </c>
-      <c r="B3" s="105" t="s">
-        <v>191</v>
+      <c r="B3" s="125" t="s">
+        <v>188</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F3" s="73" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="70"/>
-      <c r="B4" s="106"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="71" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D4" s="71"/>
       <c r="E4" s="71" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F4" s="72"/>
       <c r="H4" s="11"/>
@@ -4084,11 +4156,11 @@
       <c r="A5" s="36">
         <v>2</v>
       </c>
-      <c r="B5" s="107"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F5" s="38"/>
       <c r="H5" s="11"/>
@@ -4097,17 +4169,17 @@
       <c r="A6" s="55">
         <v>4</v>
       </c>
-      <c r="B6" s="108" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="104" t="s">
-        <v>214</v>
+      <c r="B6" s="128" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="124" t="s">
+        <v>211</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F6" s="57"/>
       <c r="H6" s="11"/>
@@ -4116,13 +4188,13 @@
       <c r="A7" s="34">
         <v>5</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="97"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="33" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F7" s="35"/>
       <c r="H7" s="11"/>
@@ -4131,13 +4203,13 @@
       <c r="A8" s="34">
         <v>6</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="97"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="33" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F8" s="35"/>
       <c r="H8" s="11"/>
@@ -4146,13 +4218,13 @@
       <c r="A9" s="34">
         <v>7</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="97"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="33" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F9" s="35"/>
       <c r="H9" s="11"/>
@@ -4161,8 +4233,8 @@
       <c r="A10" s="34">
         <v>8</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="111"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="35"/>
@@ -4172,8 +4244,8 @@
       <c r="A11" s="36">
         <v>9</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="98"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
       <c r="F11" s="38"/>
@@ -4182,17 +4254,17 @@
       <c r="A12" s="55">
         <v>10</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>210</v>
-      </c>
       <c r="E12" s="56" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F12" s="57"/>
     </row>
@@ -4200,7 +4272,7 @@
       <c r="A13" s="36">
         <v>11</v>
       </c>
-      <c r="B13" s="107"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
@@ -4210,11 +4282,11 @@
       <c r="A14" s="55">
         <v>12</v>
       </c>
-      <c r="B14" s="108" t="s">
-        <v>212</v>
+      <c r="B14" s="128" t="s">
+        <v>209</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
@@ -4224,7 +4296,7 @@
       <c r="A15" s="34">
         <v>13</v>
       </c>
-      <c r="B15" s="109"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -4234,7 +4306,7 @@
       <c r="A16" s="34">
         <v>14</v>
       </c>
-      <c r="B16" s="109"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -4244,7 +4316,7 @@
       <c r="A17" s="34">
         <v>15</v>
       </c>
-      <c r="B17" s="109"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -4254,7 +4326,7 @@
       <c r="A18" s="36">
         <v>16</v>
       </c>
-      <c r="B18" s="107"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
@@ -4264,7 +4336,7 @@
       <c r="A19" s="58">
         <v>17</v>
       </c>
-      <c r="B19" s="110"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
@@ -4274,7 +4346,7 @@
       <c r="A20" s="36">
         <v>18</v>
       </c>
-      <c r="B20" s="111"/>
+      <c r="B20" s="123"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
@@ -4296,16 +4368,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15" style="20" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="20" customWidth="1"/>
     <col min="3" max="3" width="20" style="20" customWidth="1"/>
     <col min="4" max="4" width="30.875" style="20" customWidth="1"/>
     <col min="5" max="5" width="61.375" style="20" customWidth="1"/>
@@ -4318,22 +4390,22 @@
     <row r="1" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" s="24" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H2" s="61"/>
     </row>
@@ -4341,370 +4413,396 @@
       <c r="A3" s="55">
         <v>1</v>
       </c>
-      <c r="B3" s="105" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="112" t="s">
-        <v>190</v>
+      <c r="B3" s="125" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="130" t="s">
+        <v>187</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>106</v>
+        <v>287</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="F3" s="57"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="70"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="71" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="72"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="70"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="71" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" s="72"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="55">
+      <c r="B6" s="127"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="55">
         <v>4</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B7" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="34">
-        <v>5</v>
-      </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="34">
-        <v>6</v>
-      </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="35"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="34">
-        <v>7</v>
-      </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="106"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="129"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="33" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F8" s="35"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34">
-        <v>8</v>
-      </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="106"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="129"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="33"/>
+        <v>108</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>112</v>
+      </c>
       <c r="F9" s="35"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36">
-        <v>9</v>
-      </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="34">
+        <v>7</v>
+      </c>
+      <c r="B10" s="129"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="55">
-        <v>10</v>
-      </c>
-      <c r="B11" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="57"/>
+      <c r="A11" s="34">
+        <v>8</v>
+      </c>
+      <c r="B11" s="129"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36">
-        <v>11</v>
-      </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="106"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="127"/>
+      <c r="C12" s="126"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="55">
+        <v>10</v>
+      </c>
+      <c r="B13" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="126"/>
+      <c r="D13" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="57"/>
+    </row>
+    <row r="14" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36">
+        <v>11</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="55">
         <v>12</v>
       </c>
-      <c r="B13" s="108" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-    </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="34">
-        <v>13</v>
-      </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="35"/>
-    </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="34">
-        <v>14</v>
-      </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="35"/>
+      <c r="B15" s="128" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="126"/>
+      <c r="D15" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34">
+        <v>13</v>
+      </c>
+      <c r="B16" s="129"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="34">
+        <v>14</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="34">
         <v>15</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="35"/>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36">
+      <c r="B18" s="129"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="36">
         <v>16</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="58">
-        <v>17</v>
-      </c>
-      <c r="B18" s="110" t="s">
-        <v>186</v>
-      </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="60"/>
-    </row>
-    <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36">
-        <v>18</v>
-      </c>
-      <c r="B19" s="111"/>
-      <c r="C19" s="111"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="58">
+        <v>17</v>
+      </c>
+      <c r="B20" s="122" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="126"/>
+      <c r="D20" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="60"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="36">
+        <v>18</v>
+      </c>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="55">
+        <v>1</v>
+      </c>
+      <c r="B25" s="125" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="53" t="s">
+      <c r="D25" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="57"/>
+    </row>
+    <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="34">
+        <v>2</v>
+      </c>
+      <c r="B26" s="129"/>
+      <c r="C26" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="55">
-        <v>1</v>
-      </c>
-      <c r="B23" s="105" t="s">
+      <c r="D26" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="36">
+        <v>3</v>
+      </c>
+      <c r="B27" s="127"/>
+      <c r="C27" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="D27" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="38"/>
+    </row>
+    <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="55">
+        <v>4</v>
+      </c>
+      <c r="B28" s="125" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="57"/>
-    </row>
-    <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="34">
-        <v>2</v>
-      </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="33" t="s">
+      <c r="D28" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="57"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="34">
+        <v>5</v>
+      </c>
+      <c r="B29" s="129"/>
+      <c r="C29" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="35"/>
-    </row>
-    <row r="25" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36">
-        <v>3</v>
-      </c>
-      <c r="B25" s="107"/>
-      <c r="C25" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="38"/>
-    </row>
-    <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="55">
-        <v>4</v>
-      </c>
-      <c r="B26" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="57"/>
-    </row>
-    <row r="27" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="34">
-        <v>5</v>
-      </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="35"/>
-    </row>
-    <row r="28" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36">
-        <v>6</v>
-      </c>
-      <c r="B28" s="107"/>
-      <c r="C28" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="38"/>
-    </row>
-    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="58">
-        <v>7</v>
-      </c>
-      <c r="B29" s="113" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="60"/>
+      <c r="E29" s="35"/>
     </row>
     <row r="30" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36">
+        <v>6</v>
+      </c>
+      <c r="B30" s="127"/>
+      <c r="C30" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="38"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="58">
+        <v>7</v>
+      </c>
+      <c r="B31" s="131" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="60"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="36">
         <v>8</v>
       </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="38"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C3:C19"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C3:C21"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4737,7 +4835,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>21</v>
@@ -4750,14 +4848,14 @@
       <c r="A2" s="47">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>288</v>
+      <c r="B2" s="132" t="s">
+        <v>283</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="49"/>
     </row>
@@ -4765,12 +4863,12 @@
       <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="115"/>
+      <c r="B3" s="133"/>
       <c r="C3" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="27"/>
     </row>
@@ -4778,114 +4876,114 @@
       <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="115"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="39" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="115"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="115"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="115"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="115"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="91" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="27"/>
@@ -4894,7 +4992,7 @@
       <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="27"/>
@@ -4903,11 +5001,11 @@
       <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="135" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="27"/>
@@ -4916,9 +5014,9 @@
       <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="118"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="27"/>
@@ -4927,24 +5025,24 @@
       <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="118"/>
+      <c r="B15" s="136"/>
       <c r="C15" s="39" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="118"/>
+      <c r="B16" s="136"/>
       <c r="C16" s="91" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="31"/>
@@ -4953,7 +5051,7 @@
       <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="132"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="27"/>
@@ -4962,24 +5060,24 @@
       <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="115" t="s">
-        <v>80</v>
+      <c r="B18" s="133" t="s">
+        <v>79</v>
       </c>
       <c r="C18" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="41" t="s">
         <v>54</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="115"/>
+      <c r="B19" s="133"/>
       <c r="C19" s="25" t="s">
         <v>36</v>
       </c>
@@ -4990,12 +5088,12 @@
       <c r="A20" s="26">
         <v>19</v>
       </c>
-      <c r="B20" s="115"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="27"/>
     </row>
@@ -5003,12 +5101,12 @@
       <c r="A21" s="26">
         <v>20</v>
       </c>
-      <c r="B21" s="115"/>
+      <c r="B21" s="133"/>
       <c r="C21" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="27"/>
     </row>
@@ -5016,12 +5114,12 @@
       <c r="A22" s="26">
         <v>21</v>
       </c>
-      <c r="B22" s="115"/>
+      <c r="B22" s="133"/>
       <c r="C22" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="27"/>
     </row>
@@ -5029,12 +5127,12 @@
       <c r="A23" s="26">
         <v>22</v>
       </c>
-      <c r="B23" s="115"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="27"/>
     </row>
@@ -5042,9 +5140,9 @@
       <c r="A24" s="26">
         <v>23</v>
       </c>
-      <c r="B24" s="115"/>
+      <c r="B24" s="133"/>
       <c r="C24" s="91" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="27"/>
@@ -5053,7 +5151,7 @@
       <c r="A25" s="26">
         <v>24</v>
       </c>
-      <c r="B25" s="115"/>
+      <c r="B25" s="133"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="27"/>
@@ -5062,26 +5160,26 @@
       <c r="A26" s="26">
         <v>25</v>
       </c>
-      <c r="B26" s="115" t="s">
-        <v>81</v>
+      <c r="B26" s="133" t="s">
+        <v>80</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="26">
         <v>26</v>
       </c>
-      <c r="B27" s="115"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="27"/>
@@ -5090,9 +5188,9 @@
       <c r="A28" s="26">
         <v>27</v>
       </c>
-      <c r="B28" s="115"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="27"/>
@@ -5101,9 +5199,9 @@
       <c r="A29" s="26">
         <v>28</v>
       </c>
-      <c r="B29" s="115"/>
+      <c r="B29" s="133"/>
       <c r="C29" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="27"/>
@@ -5112,9 +5210,9 @@
       <c r="A30" s="26">
         <v>29</v>
       </c>
-      <c r="B30" s="115"/>
+      <c r="B30" s="133"/>
       <c r="C30" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="27"/>
@@ -5123,9 +5221,9 @@
       <c r="A31" s="26">
         <v>30</v>
       </c>
-      <c r="B31" s="115"/>
+      <c r="B31" s="133"/>
       <c r="C31" s="91" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="27"/>
@@ -5134,7 +5232,7 @@
       <c r="A32" s="28">
         <v>31</v>
       </c>
-      <c r="B32" s="116"/>
+      <c r="B32" s="134"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="30"/>
@@ -5177,7 +5275,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>25</v>
@@ -5190,11 +5288,11 @@
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="124" t="s">
-        <v>172</v>
+      <c r="B2" s="142" t="s">
+        <v>169</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="65"/>
       <c r="E2" s="66"/>
@@ -5203,12 +5301,12 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="122"/>
+      <c r="B3" s="140"/>
       <c r="C3" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="23"/>
     </row>
@@ -5216,12 +5314,12 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="122"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E4" s="23"/>
     </row>
@@ -5229,12 +5327,12 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="122"/>
+      <c r="B5" s="140"/>
       <c r="C5" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E5" s="23"/>
     </row>
@@ -5242,9 +5340,9 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="122"/>
+      <c r="B6" s="140"/>
       <c r="C6" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="78"/>
       <c r="E6" s="23"/>
@@ -5253,9 +5351,9 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="122"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="78"/>
       <c r="E7" s="23"/>
@@ -5264,12 +5362,12 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="122"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E8" s="23"/>
     </row>
@@ -5277,9 +5375,9 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="122"/>
+      <c r="B9" s="140"/>
       <c r="C9" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
@@ -5288,9 +5386,9 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="140"/>
       <c r="C10" s="76" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D10" s="76"/>
       <c r="E10" s="23"/>
@@ -5299,9 +5397,9 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="122"/>
+      <c r="B11" s="140"/>
       <c r="C11" s="76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="76"/>
       <c r="E11" s="23"/>
@@ -5310,9 +5408,9 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="122"/>
+      <c r="B12" s="140"/>
       <c r="C12" s="76" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="23"/>
@@ -5321,12 +5419,12 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="122"/>
+      <c r="B13" s="140"/>
       <c r="C13" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="23"/>
     </row>
@@ -5334,9 +5432,9 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="122"/>
+      <c r="B14" s="140"/>
       <c r="C14" s="77" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D14" s="77"/>
       <c r="E14" s="23"/>
@@ -5345,9 +5443,9 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="122"/>
+      <c r="B15" s="140"/>
       <c r="C15" s="77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="77"/>
       <c r="E15" s="23"/>
@@ -5356,9 +5454,9 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="122"/>
+      <c r="B16" s="140"/>
       <c r="C16" s="77" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D16" s="77"/>
       <c r="E16" s="23"/>
@@ -5367,12 +5465,12 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="122"/>
+      <c r="B17" s="140"/>
       <c r="C17" s="74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="23"/>
     </row>
@@ -5380,12 +5478,12 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="122"/>
+      <c r="B18" s="140"/>
       <c r="C18" s="74" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D18" s="74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="23"/>
     </row>
@@ -5393,12 +5491,12 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="122"/>
+      <c r="B19" s="140"/>
       <c r="C19" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E19" s="23"/>
     </row>
@@ -5406,12 +5504,12 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="122"/>
+      <c r="B20" s="140"/>
       <c r="C20" s="74" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E20" s="23"/>
     </row>
@@ -5419,7 +5517,7 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="122"/>
+      <c r="B21" s="140"/>
       <c r="C21" s="74"/>
       <c r="D21" s="75"/>
       <c r="E21" s="23"/>
@@ -5428,9 +5526,9 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="122"/>
+      <c r="B22" s="140"/>
       <c r="C22" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
@@ -5439,9 +5537,9 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="122"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
@@ -5450,9 +5548,9 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="122"/>
+      <c r="B24" s="140"/>
       <c r="C24" s="89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="23"/>
@@ -5461,7 +5559,7 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="125"/>
+      <c r="B25" s="143"/>
       <c r="C25" s="67"/>
       <c r="D25" s="67"/>
       <c r="E25" s="68"/>
@@ -5470,11 +5568,11 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="142" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="65" t="s">
         <v>84</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>85</v>
       </c>
       <c r="D26" s="65"/>
       <c r="E26" s="66"/>
@@ -5483,9 +5581,9 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="122"/>
+      <c r="B27" s="140"/>
       <c r="C27" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="23"/>
@@ -5494,12 +5592,12 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="122"/>
+      <c r="B28" s="140"/>
       <c r="C28" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E28" s="23"/>
     </row>
@@ -5507,9 +5605,9 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="122"/>
+      <c r="B29" s="140"/>
       <c r="C29" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="23"/>
@@ -5518,7 +5616,7 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="125"/>
+      <c r="B30" s="143"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
       <c r="E30" s="68"/>
@@ -5527,11 +5625,11 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="121" t="s">
-        <v>66</v>
+      <c r="B31" s="139" t="s">
+        <v>65</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="51"/>
@@ -5540,9 +5638,9 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="122"/>
+      <c r="B32" s="140"/>
       <c r="C32" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="23"/>
@@ -5551,9 +5649,9 @@
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="122"/>
+      <c r="B33" s="140"/>
       <c r="C33" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="23"/>
@@ -5562,9 +5660,9 @@
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="122"/>
+      <c r="B34" s="140"/>
       <c r="C34" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="23"/>
@@ -5573,9 +5671,9 @@
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="122"/>
+      <c r="B35" s="140"/>
       <c r="C35" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="23"/>
@@ -5584,9 +5682,9 @@
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="122"/>
+      <c r="B36" s="140"/>
       <c r="C36" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="23"/>
@@ -5595,9 +5693,9 @@
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="122"/>
+      <c r="B37" s="140"/>
       <c r="C37" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="23"/>
@@ -5606,9 +5704,9 @@
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="122"/>
+      <c r="B38" s="140"/>
       <c r="C38" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="23"/>
@@ -5617,9 +5715,9 @@
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="122"/>
+      <c r="B39" s="140"/>
       <c r="C39" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="23"/>
@@ -5628,9 +5726,9 @@
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="123"/>
+      <c r="B40" s="141"/>
       <c r="C40" s="90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="64"/>
@@ -5639,7 +5737,7 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="123"/>
+      <c r="B41" s="141"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
       <c r="E41" s="64"/>
@@ -5648,11 +5746,11 @@
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="104" t="s">
-        <v>187</v>
+      <c r="B42" s="124" t="s">
+        <v>184</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D42" s="65"/>
       <c r="E42" s="66"/>
@@ -5661,9 +5759,9 @@
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="119"/>
+      <c r="B43" s="137"/>
       <c r="C43" s="22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="23"/>
@@ -5672,9 +5770,9 @@
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="119"/>
+      <c r="B44" s="137"/>
       <c r="C44" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="23"/>
@@ -5683,9 +5781,9 @@
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="119"/>
+      <c r="B45" s="137"/>
       <c r="C45" s="22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="23"/>
@@ -5694,9 +5792,9 @@
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="119"/>
+      <c r="B46" s="137"/>
       <c r="C46" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="23"/>
@@ -5705,9 +5803,9 @@
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="119"/>
+      <c r="B47" s="137"/>
       <c r="C47" s="22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="23"/>
@@ -5716,9 +5814,9 @@
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="119"/>
+      <c r="B48" s="137"/>
       <c r="C48" s="22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="23"/>
@@ -5727,9 +5825,9 @@
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="119"/>
+      <c r="B49" s="137"/>
       <c r="C49" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="23"/>
@@ -5738,12 +5836,12 @@
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="119"/>
+      <c r="B50" s="137"/>
       <c r="C50" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E50" s="23"/>
     </row>
@@ -5751,12 +5849,12 @@
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="119"/>
+      <c r="B51" s="137"/>
       <c r="C51" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E51" s="23"/>
     </row>
@@ -5764,12 +5862,12 @@
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="119"/>
+      <c r="B52" s="137"/>
       <c r="C52" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E52" s="23"/>
     </row>
@@ -5777,12 +5875,12 @@
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="119"/>
+      <c r="B53" s="137"/>
       <c r="C53" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E53" s="23"/>
     </row>
@@ -5790,12 +5888,12 @@
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="119"/>
+      <c r="B54" s="137"/>
       <c r="C54" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E54" s="23"/>
     </row>
@@ -5803,7 +5901,7 @@
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="120"/>
+      <c r="B55" s="138"/>
       <c r="C55" s="67"/>
       <c r="D55" s="67"/>
       <c r="E55" s="68"/>
@@ -5812,11 +5910,11 @@
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="124" t="s">
-        <v>219</v>
+      <c r="B56" s="142" t="s">
+        <v>216</v>
       </c>
       <c r="C56" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D56" s="65"/>
       <c r="E56" s="66"/>
@@ -5825,9 +5923,9 @@
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="122"/>
+      <c r="B57" s="140"/>
       <c r="C57" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="23"/>
@@ -5836,9 +5934,9 @@
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="122"/>
+      <c r="B58" s="140"/>
       <c r="C58" s="89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="23"/>
@@ -5847,7 +5945,7 @@
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="125"/>
+      <c r="B59" s="143"/>
       <c r="C59" s="67"/>
       <c r="D59" s="67"/>
       <c r="E59" s="68"/>
@@ -5856,11 +5954,11 @@
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="104" t="s">
-        <v>218</v>
+      <c r="B60" s="124" t="s">
+        <v>215</v>
       </c>
       <c r="C60" s="65" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D60" s="65"/>
       <c r="E60" s="66"/>
@@ -5869,9 +5967,9 @@
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="119"/>
+      <c r="B61" s="137"/>
       <c r="C61" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D61" s="22"/>
       <c r="E61" s="23"/>
@@ -5880,9 +5978,9 @@
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="119"/>
+      <c r="B62" s="137"/>
       <c r="C62" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D62" s="22"/>
       <c r="E62" s="23"/>
@@ -5891,9 +5989,9 @@
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="119"/>
+      <c r="B63" s="137"/>
       <c r="C63" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D63" s="32"/>
       <c r="E63" s="64"/>
@@ -5902,9 +6000,9 @@
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="119"/>
+      <c r="B64" s="137"/>
       <c r="C64" s="32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D64" s="32"/>
       <c r="E64" s="64"/>
@@ -5913,9 +6011,9 @@
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="119"/>
+      <c r="B65" s="137"/>
       <c r="C65" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D65" s="32"/>
       <c r="E65" s="64"/>
@@ -5924,7 +6022,7 @@
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="119"/>
+      <c r="B66" s="137"/>
       <c r="C66" s="32"/>
       <c r="D66" s="32"/>
       <c r="E66" s="64"/>
@@ -5933,7 +6031,7 @@
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="120"/>
+      <c r="B67" s="138"/>
       <c r="C67" s="67"/>
       <c r="D67" s="67"/>
       <c r="E67" s="68"/>
